--- a/reports/metrics.xlsx
+++ b/reports/metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,6 +531,62 @@
         <v>0.281001881001881</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>KNN_version_1</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3217391304347826</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.07035330694830499</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07430097822851121</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.07126649005254523</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2836746693384991</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.3217391304347826</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2985569894858061</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>KNN_version_2</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2363636363636364</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1128668149459225</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1150636802810716</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.113201041836724</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.2304672457816474</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.2363636363636364</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.2323304717634825</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reports/metrics.xlsx
+++ b/reports/metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,6 +531,62 @@
         <v>0.281001881001881</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>KNN_version_3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3217391304347826</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.07035330694830499</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07430097822851121</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.07126649005254523</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2836746693384991</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.3217391304347826</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2985569894858061</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>KNN_version_4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2363636363636364</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1128668149459225</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1150636802810716</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.113201041836724</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.2304672457816474</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.2363636363636364</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.2323304717634825</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reports/metrics.xlsx
+++ b/reports/metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,6 +587,62 @@
         <v>0.2323304717634825</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>RFC_version_5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3237458193979933</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.07548013755084859</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.07889785715663596</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.07663321681942116</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.293888166125396</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.3237458193979933</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.3073092323655619</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>RFC_version_6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2909090909090909</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1685804701627487</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1551775519166823</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1577336755908184</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2757537399309551</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.2909090909090909</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.281001881001881</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reports/metrics.xlsx
+++ b/reports/metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,6 +643,62 @@
         <v>0.281001881001881</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>KNN_version_5</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.3217391304347826</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.07035330694830499</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.07430097822851121</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.07126649005254523</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.2836746693384991</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.3217391304347826</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.2985569894858061</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>KNN_version_6</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.2363636363636364</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1128668149459225</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1150636802810716</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.113201041836724</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.2304672457816474</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.2363636363636364</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.2323304717634825</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
